--- a/UMAWorldConf/配置/角色属性.xlsx
+++ b/UMAWorldConf/配置/角色属性.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="12770" windowHeight="5720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#CreateRoleAttribute" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="#CharLevel" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,132 @@
   </si>
   <si>
     <t>英文|支持空字符串</t>
+  </si>
+  <si>
+    <t>晋级经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nextExp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>needProp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>namefront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>境界名称(前)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>境界名称(后)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigLevel1</t>
+  </si>
+  <si>
+    <t>BigLevel3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigLevel2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallLevel1</t>
+  </si>
+  <si>
+    <t>SmallLevel2</t>
+  </si>
+  <si>
+    <t>SmallLevel3</t>
+  </si>
+  <si>
+    <t>SmallLevel4</t>
+  </si>
+  <si>
+    <t>SmallLevel5</t>
+  </si>
+  <si>
+    <t>炼气期初期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气期中期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气期后期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气期巅峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气期大圆满</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基期初期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基期中期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基期后期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基期巅峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑基期大圆满</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结丹期初期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结丹期中期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结丹期后期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结丹期大圆满</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结丹期巅峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -148,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -168,6 +294,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1181,14 +1320,376 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="5" max="5" width="14.9140625" customWidth="1"/>
+    <col min="6" max="6" width="28.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.5">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>300</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.5">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>400</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.5">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>500</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.5">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>600</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>700</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>800</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>900</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.5">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1300</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1400</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
